--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3914</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aththachchi Nuwan Pradeep Roshan Fernando</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>31/07/2012</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>16/06/2016</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>14/11/2016</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/11/2016</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1836,7 +1886,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1844,7 +1893,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1884,7 +1933,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1892,7 +1940,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1932,7 +1980,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -1940,7 +1987,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1980,7 +2027,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -1988,7 +2034,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2040,7 +2086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2092,7 +2138,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2190,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2184,7 +2230,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>21/05/2019</t>
@@ -2192,7 +2237,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2244,7 +2289,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,7 +2341,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2400,7 +2445,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2440,7 +2485,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -2448,7 +2492,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2500,7 +2544,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2552,7 +2596,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2604,7 +2648,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2644,7 +2688,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>26/02/2020</t>
@@ -2652,7 +2695,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2704,7 +2747,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2756,7 +2799,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2796,7 +2839,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -2804,7 +2846,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2844,7 +2886,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -2852,7 +2893,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4521</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2904,7 +2945,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2943,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2965,7 +3006,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3002,7 +3043,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3039,7 +3080,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3076,7 +3117,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3113,7 +3154,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3150,7 +3191,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3187,7 +3228,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3224,7 +3265,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3261,7 +3302,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3298,7 +3339,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3335,7 +3376,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3372,7 +3413,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3409,7 +3450,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3446,7 +3487,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3483,7 +3524,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3520,7 +3561,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3557,7 +3598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3594,7 +3635,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3631,7 +3672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3668,7 +3709,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3705,7 +3746,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3742,7 +3783,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3779,7 +3820,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3816,7 +3857,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3853,7 +3894,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3890,7 +3931,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3927,7 +3968,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3964,7 +4005,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4001,7 +4042,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4038,7 +4079,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4075,7 +4116,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4112,7 +4153,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4149,7 +4190,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4186,7 +4227,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4223,7 +4264,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4260,7 +4301,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4297,7 +4338,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4334,7 +4375,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4371,7 +4412,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4408,7 +4449,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4445,7 +4486,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4482,7 +4523,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4519,7 +4560,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4556,7 +4597,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4593,7 +4634,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4630,7 +4671,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4667,7 +4708,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4521</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4704,7 +4745,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4732,6 +4773,413 @@
           <t>2/74</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4834,9 +4835,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4849,10 +4847,6 @@
           <t>4211</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4865,10 +4859,6 @@
           <t>4231</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4894,7 +4884,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>YES</t>
@@ -4937,15 +4926,311 @@
           <t>4302</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4953,13 +5238,14 @@
           <t>4309</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -4969,29 +5255,12 @@
           <t>4322</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4999,13 +5268,14 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5015,25 +5285,8 @@
           <t>4356</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5041,29 +5294,8 @@
           <t>4357</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5071,15 +5303,12 @@
           <t>4375</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5087,13 +5316,14 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5103,11 +5333,16 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5117,9 +5352,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5127,11 +5359,12 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5139,11 +5372,12 @@
           <t>4449</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5153,9 +5387,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5163,11 +5394,16 @@
           <t>4521</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5177,9 +5413,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3914.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>31/07/2012</t>
@@ -657,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>15/07/2015</t>
@@ -808,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>16/06/2016</t>
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -1001,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -1199,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>14/11/2016</t>
@@ -1298,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/11/2016</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -1548,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -1595,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -1642,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -1689,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1736,6 +1748,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -1887,6 +1900,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1934,6 +1948,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1946,7 +1961,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1981,6 +1996,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -2028,6 +2044,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -2231,6 +2248,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>21/05/2019</t>
@@ -2486,6 +2504,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -2689,6 +2708,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>26/02/2020</t>
@@ -2840,6 +2860,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>12/03/2021</t>
@@ -2887,6 +2908,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -4778,643 +4800,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4521</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4521</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>